--- a/Code/Results/Cases/Case_5_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_147/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.000677722001158</v>
+        <v>1.057028082059764</v>
       </c>
       <c r="D2">
-        <v>1.018952697495665</v>
+        <v>1.054582980607437</v>
       </c>
       <c r="E2">
-        <v>1.011227355439774</v>
+        <v>1.06229614213626</v>
       </c>
       <c r="F2">
-        <v>1.014098755413572</v>
+        <v>1.071272194292041</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046134924016225</v>
+        <v>1.041541081105195</v>
       </c>
       <c r="J2">
-        <v>1.022838181398837</v>
+        <v>1.062026641344852</v>
       </c>
       <c r="K2">
-        <v>1.030154157729525</v>
+        <v>1.057325791949645</v>
       </c>
       <c r="L2">
-        <v>1.022532460327872</v>
+        <v>1.065017874336167</v>
       </c>
       <c r="M2">
-        <v>1.025365105305357</v>
+        <v>1.073969809336351</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01082829134102</v>
+        <v>1.058887323096292</v>
       </c>
       <c r="D3">
-        <v>1.026812243694996</v>
+        <v>1.056009820986789</v>
       </c>
       <c r="E3">
-        <v>1.020415090838764</v>
+        <v>1.064012694455673</v>
       </c>
       <c r="F3">
-        <v>1.024134705595032</v>
+        <v>1.073179524846739</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049631201467729</v>
+        <v>1.042037246872855</v>
       </c>
       <c r="J3">
-        <v>1.031028056574975</v>
+        <v>1.063533812675358</v>
       </c>
       <c r="K3">
-        <v>1.037113176496083</v>
+        <v>1.058564337102249</v>
       </c>
       <c r="L3">
-        <v>1.030793254038157</v>
+        <v>1.06654694832461</v>
       </c>
       <c r="M3">
-        <v>1.034467817555973</v>
+        <v>1.075690969176053</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017134032507358</v>
+        <v>1.060086506140556</v>
       </c>
       <c r="D4">
-        <v>1.031696649448543</v>
+        <v>1.056929563082407</v>
       </c>
       <c r="E4">
-        <v>1.02612527120651</v>
+        <v>1.065119628164644</v>
       </c>
       <c r="F4">
-        <v>1.030376208943294</v>
+        <v>1.074410140828672</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051785393031312</v>
+        <v>1.042355048962529</v>
       </c>
       <c r="J4">
-        <v>1.036109375882575</v>
+        <v>1.064504932987288</v>
       </c>
       <c r="K4">
-        <v>1.04142700191868</v>
+        <v>1.059361726369345</v>
       </c>
       <c r="L4">
-        <v>1.035918289527396</v>
+        <v>1.067532116180817</v>
       </c>
       <c r="M4">
-        <v>1.040121338044374</v>
+        <v>1.076800699586076</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019726914768339</v>
+        <v>1.060589736302966</v>
       </c>
       <c r="D5">
-        <v>1.033705356218659</v>
+        <v>1.057315394545962</v>
       </c>
       <c r="E5">
-        <v>1.028473778375738</v>
+        <v>1.06558409414173</v>
       </c>
       <c r="F5">
-        <v>1.032944267602732</v>
+        <v>1.074926661026741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052666828469895</v>
+        <v>1.042487881101728</v>
       </c>
       <c r="J5">
-        <v>1.038197163020075</v>
+        <v>1.064912222154091</v>
       </c>
       <c r="K5">
-        <v>1.043198477161134</v>
+        <v>1.059695997014648</v>
       </c>
       <c r="L5">
-        <v>1.038023980034749</v>
+        <v>1.067945281716252</v>
       </c>
       <c r="M5">
-        <v>1.042445648536784</v>
+        <v>1.077266297409579</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020158994730127</v>
+        <v>1.060674178291912</v>
       </c>
       <c r="D6">
-        <v>1.034040099471753</v>
+        <v>1.057380129199357</v>
       </c>
       <c r="E6">
-        <v>1.02886516310626</v>
+        <v>1.065662028427667</v>
       </c>
       <c r="F6">
-        <v>1.033372302360512</v>
+        <v>1.075013338906868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052813452766547</v>
+        <v>1.042510139121102</v>
       </c>
       <c r="J6">
-        <v>1.03854497586506</v>
+        <v>1.064980551405992</v>
       </c>
       <c r="K6">
-        <v>1.043493535973618</v>
+        <v>1.059752067102848</v>
       </c>
       <c r="L6">
-        <v>1.038374772312867</v>
+        <v>1.068014595942983</v>
       </c>
       <c r="M6">
-        <v>1.042832948872022</v>
+        <v>1.077344419173302</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017168900964852</v>
+        <v>1.060093233860752</v>
       </c>
       <c r="D7">
-        <v>1.03172366122038</v>
+        <v>1.056934721815672</v>
       </c>
       <c r="E7">
-        <v>1.026156851445869</v>
+        <v>1.065125837849639</v>
       </c>
       <c r="F7">
-        <v>1.030410737370273</v>
+        <v>1.074417045833765</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051797263753041</v>
+        <v>1.042356826896374</v>
       </c>
       <c r="J7">
-        <v>1.036137458475462</v>
+        <v>1.064510378993202</v>
       </c>
       <c r="K7">
-        <v>1.04145083373986</v>
+        <v>1.059366196631578</v>
       </c>
       <c r="L7">
-        <v>1.035946613155838</v>
+        <v>1.067537640820942</v>
       </c>
       <c r="M7">
-        <v>1.040152596427401</v>
+        <v>1.076806924566868</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004165531342373</v>
+        <v>1.057657234821419</v>
       </c>
       <c r="D8">
-        <v>1.021652770265778</v>
+        <v>1.055065925320916</v>
       </c>
       <c r="E8">
-        <v>1.014383714692897</v>
+        <v>1.062877055041986</v>
       </c>
       <c r="F8">
-        <v>1.017545646451974</v>
+        <v>1.071917533755744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047339988217166</v>
+        <v>1.041709439456033</v>
       </c>
       <c r="J8">
-        <v>1.025653586582974</v>
+        <v>1.062536860137193</v>
       </c>
       <c r="K8">
-        <v>1.032547216183107</v>
+        <v>1.05774520717945</v>
       </c>
       <c r="L8">
-        <v>1.025372311518997</v>
+        <v>1.065535521520611</v>
       </c>
       <c r="M8">
-        <v>1.028493082123102</v>
+        <v>1.07455231780933</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9789922610375801</v>
+        <v>1.053334141898692</v>
       </c>
       <c r="D9">
-        <v>1.002182557596148</v>
+        <v>1.051745266633999</v>
       </c>
       <c r="E9">
-        <v>0.9916191758914797</v>
+        <v>1.058884547835644</v>
       </c>
       <c r="F9">
-        <v>0.99270262461218</v>
+        <v>1.067484940558738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038568234663885</v>
+        <v>1.040543482043444</v>
       </c>
       <c r="J9">
-        <v>1.005309308174362</v>
+        <v>1.059026961010733</v>
       </c>
       <c r="K9">
-        <v>1.01524032329819</v>
+        <v>1.054857322554997</v>
       </c>
       <c r="L9">
-        <v>1.004849705524381</v>
+        <v>1.061974236987057</v>
       </c>
       <c r="M9">
-        <v>1.005915216684391</v>
+        <v>1.070548118992964</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9602663802809016</v>
+        <v>1.05043025894321</v>
       </c>
       <c r="D10">
-        <v>0.9877345559149665</v>
+        <v>1.049512023025341</v>
       </c>
       <c r="E10">
-        <v>0.9747137837854014</v>
+        <v>1.056201623539915</v>
       </c>
       <c r="F10">
-        <v>0.974273592419445</v>
+        <v>1.064509682149195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031952651434816</v>
+        <v>1.039748847424511</v>
       </c>
       <c r="J10">
-        <v>0.9901502292449326</v>
+        <v>1.056664251418192</v>
       </c>
       <c r="K10">
-        <v>1.002328855265487</v>
+        <v>1.052910029353237</v>
       </c>
       <c r="L10">
-        <v>0.9895551069159599</v>
+        <v>1.059576563544745</v>
       </c>
       <c r="M10">
-        <v>0.9891234178325861</v>
+        <v>1.067856418751999</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9515728115373876</v>
+        <v>1.049167382954214</v>
       </c>
       <c r="D11">
-        <v>0.9810404383005218</v>
+        <v>1.048540180199646</v>
       </c>
       <c r="E11">
-        <v>0.9668751324806552</v>
+        <v>1.055034583741953</v>
       </c>
       <c r="F11">
-        <v>0.9657323766272788</v>
+        <v>1.063216285067726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028862033755048</v>
+        <v>1.039400561045359</v>
       </c>
       <c r="J11">
-        <v>0.9831088399070819</v>
+        <v>1.055635532853797</v>
       </c>
       <c r="K11">
-        <v>0.9963289858596156</v>
+        <v>1.052061409389598</v>
       </c>
       <c r="L11">
-        <v>0.9824499913367046</v>
+        <v>1.058532528170124</v>
       </c>
       <c r="M11">
-        <v>0.9813308164811889</v>
+        <v>1.066685341407287</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9482421802145472</v>
+        <v>1.048697447077058</v>
       </c>
       <c r="D12">
-        <v>0.9784783659347115</v>
+        <v>1.048178450458764</v>
       </c>
       <c r="E12">
-        <v>0.9638738100970405</v>
+        <v>1.054600271743847</v>
       </c>
       <c r="F12">
-        <v>0.9624625491415612</v>
+        <v>1.062735070133362</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027675309097342</v>
+        <v>1.039270552420888</v>
       </c>
       <c r="J12">
-        <v>0.9804108720922169</v>
+        <v>1.055252551610407</v>
       </c>
       <c r="K12">
-        <v>0.9940298373653466</v>
+        <v>1.051745361641216</v>
       </c>
       <c r="L12">
-        <v>0.9797274777132836</v>
+        <v>1.058143830152938</v>
       </c>
       <c r="M12">
-        <v>0.9783460619186535</v>
+        <v>1.066249493596746</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9489614545538014</v>
+        <v>1.048798288672281</v>
       </c>
       <c r="D13">
-        <v>0.9790315404202589</v>
+        <v>1.04825607667494</v>
       </c>
       <c r="E13">
-        <v>0.9645218819423409</v>
+        <v>1.05469347068371</v>
       </c>
       <c r="F13">
-        <v>0.9631685781810003</v>
+        <v>1.062838328507408</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027931706764152</v>
+        <v>1.0392984687815</v>
       </c>
       <c r="J13">
-        <v>0.9809935275090853</v>
+        <v>1.055334742060854</v>
       </c>
       <c r="K13">
-        <v>0.9945263723064465</v>
+        <v>1.05181319290179</v>
       </c>
       <c r="L13">
-        <v>0.9803154400320937</v>
+        <v>1.058227248124881</v>
       </c>
       <c r="M13">
-        <v>0.9789906054889405</v>
+        <v>1.066343023613214</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9512996595798865</v>
+        <v>1.049128555341976</v>
       </c>
       <c r="D14">
-        <v>0.9808302627966267</v>
+        <v>1.048510294788874</v>
       </c>
       <c r="E14">
-        <v>0.9666289499011896</v>
+        <v>1.054998700267168</v>
       </c>
       <c r="F14">
-        <v>0.9654641605214118</v>
+        <v>1.06317652394525</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028764760307825</v>
+        <v>1.03938982758478</v>
       </c>
       <c r="J14">
-        <v>0.9828875786429575</v>
+        <v>1.055603893359486</v>
       </c>
       <c r="K14">
-        <v>0.9961404361009336</v>
+        <v>1.052035301865343</v>
       </c>
       <c r="L14">
-        <v>0.9822267197224424</v>
+        <v>1.05850041668969</v>
       </c>
       <c r="M14">
-        <v>0.9810860148115778</v>
+        <v>1.066649331720316</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9527264036121249</v>
+        <v>1.049331930484707</v>
       </c>
       <c r="D15">
-        <v>0.9819281704300593</v>
+        <v>1.048666827827674</v>
       </c>
       <c r="E15">
-        <v>0.9679148997292448</v>
+        <v>1.055186652749112</v>
       </c>
       <c r="F15">
-        <v>0.966865223390737</v>
+        <v>1.063384791927598</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029272738712137</v>
+        <v>1.039446031772953</v>
       </c>
       <c r="J15">
-        <v>0.9840432730935151</v>
+        <v>1.055769610538447</v>
       </c>
       <c r="K15">
-        <v>0.9971252622186544</v>
+        <v>1.05217203970484</v>
       </c>
       <c r="L15">
-        <v>0.9833929093926449</v>
+        <v>1.058668605380345</v>
       </c>
       <c r="M15">
-        <v>0.982364707889681</v>
+        <v>1.066837943922045</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9608299273796516</v>
+        <v>1.050513954385573</v>
       </c>
       <c r="D16">
-        <v>0.9881688077779754</v>
+        <v>1.049576417676735</v>
       </c>
       <c r="E16">
-        <v>0.9752221362809578</v>
+        <v>1.056278962188932</v>
       </c>
       <c r="F16">
-        <v>0.9748275807538826</v>
+        <v>1.064595411286393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0321526194467</v>
+        <v>1.039771872792072</v>
       </c>
       <c r="J16">
-        <v>0.9906066197548313</v>
+        <v>1.056732403299951</v>
       </c>
       <c r="K16">
-        <v>1.002717698239414</v>
+        <v>1.052966233647403</v>
       </c>
       <c r="L16">
-        <v>0.9900156109650691</v>
+        <v>1.059645728150368</v>
       </c>
       <c r="M16">
-        <v>0.9896286428464388</v>
+        <v>1.067934020321291</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9657477400301672</v>
+        <v>1.05125392334935</v>
       </c>
       <c r="D17">
-        <v>0.9919598663882229</v>
+        <v>1.050145672743244</v>
       </c>
       <c r="E17">
-        <v>0.9796594058891011</v>
+        <v>1.056962699829271</v>
       </c>
       <c r="F17">
-        <v>0.979663620183814</v>
+        <v>1.065353420486849</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033895522748251</v>
+        <v>1.039975133091841</v>
       </c>
       <c r="J17">
-        <v>0.994588936727777</v>
+        <v>1.057334810748348</v>
       </c>
       <c r="K17">
-        <v>1.00611035234124</v>
+        <v>1.053462945173146</v>
       </c>
       <c r="L17">
-        <v>0.9940337333745016</v>
+        <v>1.060257076419969</v>
       </c>
       <c r="M17">
-        <v>0.9940378697233342</v>
+        <v>1.068620057004896</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.968560814794172</v>
+        <v>1.051685008116539</v>
       </c>
       <c r="D18">
-        <v>0.9941296223171256</v>
+        <v>1.050477244438251</v>
       </c>
       <c r="E18">
-        <v>0.9821984803322567</v>
+        <v>1.057361001077912</v>
       </c>
       <c r="F18">
-        <v>0.9824312456203884</v>
+        <v>1.065795064960649</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034890691753046</v>
+        <v>1.040093286267253</v>
       </c>
       <c r="J18">
-        <v>0.9968665292638468</v>
+        <v>1.05768564110799</v>
       </c>
       <c r="K18">
-        <v>1.008050461381756</v>
+        <v>1.053752145917169</v>
       </c>
       <c r="L18">
-        <v>0.9963317328290864</v>
+        <v>1.060613104763187</v>
       </c>
       <c r="M18">
-        <v>0.9965602899725914</v>
+        <v>1.069019676358535</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9695109673072407</v>
+        <v>1.051831908307284</v>
       </c>
       <c r="D19">
-        <v>0.9948626761373287</v>
+        <v>1.050590223455657</v>
       </c>
       <c r="E19">
-        <v>0.9830562266319908</v>
+        <v>1.057496725462484</v>
       </c>
       <c r="F19">
-        <v>0.9833662655329521</v>
+        <v>1.065945572038393</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035226511110424</v>
+        <v>1.040133504968791</v>
       </c>
       <c r="J19">
-        <v>0.9976357477730623</v>
+        <v>1.057805173588994</v>
       </c>
       <c r="K19">
-        <v>1.008705656520019</v>
+        <v>1.053850667746662</v>
       </c>
       <c r="L19">
-        <v>0.9971078317133559</v>
+        <v>1.060734406755159</v>
       </c>
       <c r="M19">
-        <v>0.9974123089002896</v>
+        <v>1.069155846312812</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9652259241134935</v>
+        <v>1.051174586331476</v>
       </c>
       <c r="D20">
-        <v>0.9915574784978166</v>
+        <v>1.050084645303677</v>
       </c>
       <c r="E20">
-        <v>0.9791884855553404</v>
+        <v>1.056889394306839</v>
       </c>
       <c r="F20">
-        <v>0.9791503411931788</v>
+        <v>1.065272144080573</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033710774240814</v>
+        <v>1.039953367145537</v>
       </c>
       <c r="J20">
-        <v>0.9941664199298408</v>
+        <v>1.057270234517172</v>
       </c>
       <c r="K20">
-        <v>1.005750421895213</v>
+        <v>1.05340970691237</v>
       </c>
       <c r="L20">
-        <v>0.9936074251832644</v>
+        <v>1.060191542692243</v>
       </c>
       <c r="M20">
-        <v>0.9935699892827937</v>
+        <v>1.06854650718721</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9506140414613121</v>
+        <v>1.049031323636169</v>
       </c>
       <c r="D21">
-        <v>0.9803027597951522</v>
+        <v>1.048435454574414</v>
       </c>
       <c r="E21">
-        <v>0.9660110552583069</v>
+        <v>1.054908840623337</v>
       </c>
       <c r="F21">
-        <v>0.9647909714867349</v>
+        <v>1.06307695581827</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028520559741827</v>
+        <v>1.039362942413178</v>
       </c>
       <c r="J21">
-        <v>0.9823322034052202</v>
+        <v>1.055524659175706</v>
       </c>
       <c r="K21">
-        <v>0.9956671646402865</v>
+        <v>1.051969919429258</v>
       </c>
       <c r="L21">
-        <v>0.9816662963211866</v>
+        <v>1.058420000284767</v>
       </c>
       <c r="M21">
-        <v>0.980471568801411</v>
+        <v>1.066559155477641</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9408307974189227</v>
+        <v>1.047678853340303</v>
       </c>
       <c r="D22">
-        <v>0.9727825881534609</v>
+        <v>1.047394229069326</v>
       </c>
       <c r="E22">
-        <v>0.9571989230884834</v>
+        <v>1.053658823709599</v>
       </c>
       <c r="F22">
-        <v>0.9551913162053984</v>
+        <v>1.061692172479676</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025029949363256</v>
+        <v>1.038988014677525</v>
       </c>
       <c r="J22">
-        <v>0.9744070560574087</v>
+        <v>1.05442210640793</v>
       </c>
       <c r="K22">
-        <v>0.9889132215324695</v>
+        <v>1.05105984273556</v>
       </c>
       <c r="L22">
-        <v>0.9736687890054267</v>
+        <v>1.057300961899153</v>
       </c>
       <c r="M22">
-        <v>0.9717059570420725</v>
+        <v>1.065304655376599</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9460789844617519</v>
+        <v>1.048396297804224</v>
       </c>
       <c r="D23">
-        <v>0.9768151292859881</v>
+        <v>1.047946617337867</v>
       </c>
       <c r="E23">
-        <v>0.9619250424647613</v>
+        <v>1.054321940612509</v>
       </c>
       <c r="F23">
-        <v>0.960339567756659</v>
+        <v>1.062426714979055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026903831015814</v>
+        <v>1.039187124754817</v>
       </c>
       <c r="J23">
-        <v>0.9786585304172702</v>
+        <v>1.055007075188573</v>
       </c>
       <c r="K23">
-        <v>0.9925364786246512</v>
+        <v>1.051542754664304</v>
       </c>
       <c r="L23">
-        <v>0.9779591557847602</v>
+        <v>1.057894685366541</v>
       </c>
       <c r="M23">
-        <v>0.9764077416869718</v>
+        <v>1.065970168849646</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9654618804810267</v>
+        <v>1.051210436941368</v>
       </c>
       <c r="D24">
-        <v>0.9917394278093193</v>
+        <v>1.050112222413635</v>
       </c>
       <c r="E24">
-        <v>0.9794014250822527</v>
+        <v>1.056922519496479</v>
       </c>
       <c r="F24">
-        <v>0.979382433191987</v>
+        <v>1.065308870901851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033794320035255</v>
+        <v>1.039963203491385</v>
       </c>
       <c r="J24">
-        <v>0.9943574760552164</v>
+        <v>1.057299415415909</v>
       </c>
       <c r="K24">
-        <v>1.005913178112554</v>
+        <v>1.053433764605471</v>
       </c>
       <c r="L24">
-        <v>0.9938001959439399</v>
+        <v>1.060221156295085</v>
       </c>
       <c r="M24">
-        <v>0.9937815561268462</v>
+        <v>1.068579742834062</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9858070146646719</v>
+        <v>1.054455516298977</v>
       </c>
       <c r="D25">
-        <v>1.007448857337465</v>
+        <v>1.052607100643385</v>
       </c>
       <c r="E25">
-        <v>0.9977778548976695</v>
+        <v>1.059920365656841</v>
       </c>
       <c r="F25">
-        <v>0.9994200701099204</v>
+        <v>1.06863433698814</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040958586364877</v>
+        <v>1.040847934668216</v>
       </c>
       <c r="J25">
-        <v>1.010821655530768</v>
+        <v>1.059938290402981</v>
       </c>
       <c r="K25">
-        <v>1.019932629513304</v>
+        <v>1.055607730173483</v>
       </c>
       <c r="L25">
-        <v>1.010410765029416</v>
+        <v>1.062898972191632</v>
       </c>
       <c r="M25">
-        <v>1.012027395418713</v>
+        <v>1.071587130839684</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_147/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057028082059764</v>
+        <v>1.000677722001155</v>
       </c>
       <c r="D2">
-        <v>1.054582980607437</v>
+        <v>1.018952697495663</v>
       </c>
       <c r="E2">
-        <v>1.06229614213626</v>
+        <v>1.011227355439772</v>
       </c>
       <c r="F2">
-        <v>1.071272194292041</v>
+        <v>1.01409875541357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041541081105195</v>
+        <v>1.046134924016224</v>
       </c>
       <c r="J2">
-        <v>1.062026641344852</v>
+        <v>1.022838181398835</v>
       </c>
       <c r="K2">
-        <v>1.057325791949645</v>
+        <v>1.030154157729522</v>
       </c>
       <c r="L2">
-        <v>1.065017874336167</v>
+        <v>1.02253246032787</v>
       </c>
       <c r="M2">
-        <v>1.073969809336351</v>
+        <v>1.025365105305355</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058887323096292</v>
+        <v>1.010828291341018</v>
       </c>
       <c r="D3">
-        <v>1.056009820986789</v>
+        <v>1.026812243694994</v>
       </c>
       <c r="E3">
-        <v>1.064012694455673</v>
+        <v>1.020415090838763</v>
       </c>
       <c r="F3">
-        <v>1.073179524846739</v>
+        <v>1.02413470559503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042037246872855</v>
+        <v>1.049631201467728</v>
       </c>
       <c r="J3">
-        <v>1.063533812675358</v>
+        <v>1.031028056574974</v>
       </c>
       <c r="K3">
-        <v>1.058564337102249</v>
+        <v>1.037113176496082</v>
       </c>
       <c r="L3">
-        <v>1.06654694832461</v>
+        <v>1.030793254038156</v>
       </c>
       <c r="M3">
-        <v>1.075690969176053</v>
+        <v>1.034467817555971</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060086506140556</v>
+        <v>1.017134032507357</v>
       </c>
       <c r="D4">
-        <v>1.056929563082407</v>
+        <v>1.031696649448542</v>
       </c>
       <c r="E4">
-        <v>1.065119628164644</v>
+        <v>1.026125271206508</v>
       </c>
       <c r="F4">
-        <v>1.074410140828672</v>
+        <v>1.030376208943292</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042355048962529</v>
+        <v>1.051785393031311</v>
       </c>
       <c r="J4">
-        <v>1.064504932987288</v>
+        <v>1.036109375882573</v>
       </c>
       <c r="K4">
-        <v>1.059361726369345</v>
+        <v>1.041427001918678</v>
       </c>
       <c r="L4">
-        <v>1.067532116180817</v>
+        <v>1.035918289527394</v>
       </c>
       <c r="M4">
-        <v>1.076800699586076</v>
+        <v>1.040121338044372</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060589736302966</v>
+        <v>1.019726914768339</v>
       </c>
       <c r="D5">
-        <v>1.057315394545962</v>
+        <v>1.033705356218659</v>
       </c>
       <c r="E5">
-        <v>1.06558409414173</v>
+        <v>1.028473778375739</v>
       </c>
       <c r="F5">
-        <v>1.074926661026741</v>
+        <v>1.032944267602733</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042487881101728</v>
+        <v>1.052666828469895</v>
       </c>
       <c r="J5">
-        <v>1.064912222154091</v>
+        <v>1.038197163020076</v>
       </c>
       <c r="K5">
-        <v>1.059695997014648</v>
+        <v>1.043198477161134</v>
       </c>
       <c r="L5">
-        <v>1.067945281716252</v>
+        <v>1.038023980034749</v>
       </c>
       <c r="M5">
-        <v>1.077266297409579</v>
+        <v>1.042445648536784</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060674178291912</v>
+        <v>1.020158994730128</v>
       </c>
       <c r="D6">
-        <v>1.057380129199357</v>
+        <v>1.034040099471753</v>
       </c>
       <c r="E6">
-        <v>1.065662028427667</v>
+        <v>1.028865163106261</v>
       </c>
       <c r="F6">
-        <v>1.075013338906868</v>
+        <v>1.033372302360512</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042510139121102</v>
+        <v>1.052813452766547</v>
       </c>
       <c r="J6">
-        <v>1.064980551405992</v>
+        <v>1.038544975865061</v>
       </c>
       <c r="K6">
-        <v>1.059752067102848</v>
+        <v>1.043493535973619</v>
       </c>
       <c r="L6">
-        <v>1.068014595942983</v>
+        <v>1.038374772312868</v>
       </c>
       <c r="M6">
-        <v>1.077344419173302</v>
+        <v>1.042832948872023</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060093233860752</v>
+        <v>1.017168900964851</v>
       </c>
       <c r="D7">
-        <v>1.056934721815672</v>
+        <v>1.03172366122038</v>
       </c>
       <c r="E7">
-        <v>1.065125837849639</v>
+        <v>1.026156851445868</v>
       </c>
       <c r="F7">
-        <v>1.074417045833765</v>
+        <v>1.030410737370272</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042356826896374</v>
+        <v>1.051797263753041</v>
       </c>
       <c r="J7">
-        <v>1.064510378993202</v>
+        <v>1.036137458475462</v>
       </c>
       <c r="K7">
-        <v>1.059366196631578</v>
+        <v>1.041450833739859</v>
       </c>
       <c r="L7">
-        <v>1.067537640820942</v>
+        <v>1.035946613155837</v>
       </c>
       <c r="M7">
-        <v>1.076806924566868</v>
+        <v>1.0401525964274</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057657234821419</v>
+        <v>1.004165531342375</v>
       </c>
       <c r="D8">
-        <v>1.055065925320916</v>
+        <v>1.021652770265779</v>
       </c>
       <c r="E8">
-        <v>1.062877055041986</v>
+        <v>1.014383714692899</v>
       </c>
       <c r="F8">
-        <v>1.071917533755744</v>
+        <v>1.017545646451976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041709439456033</v>
+        <v>1.047339988217167</v>
       </c>
       <c r="J8">
-        <v>1.062536860137193</v>
+        <v>1.025653586582976</v>
       </c>
       <c r="K8">
-        <v>1.05774520717945</v>
+        <v>1.032547216183109</v>
       </c>
       <c r="L8">
-        <v>1.065535521520611</v>
+        <v>1.025372311518999</v>
       </c>
       <c r="M8">
-        <v>1.07455231780933</v>
+        <v>1.028493082123104</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.053334141898692</v>
+        <v>0.9789922610375758</v>
       </c>
       <c r="D9">
-        <v>1.051745266633999</v>
+        <v>1.002182557596144</v>
       </c>
       <c r="E9">
-        <v>1.058884547835644</v>
+        <v>0.991619175891476</v>
       </c>
       <c r="F9">
-        <v>1.067484940558738</v>
+        <v>0.992702624612176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040543482043444</v>
+        <v>1.038568234663883</v>
       </c>
       <c r="J9">
-        <v>1.059026961010733</v>
+        <v>1.005309308174358</v>
       </c>
       <c r="K9">
-        <v>1.054857322554997</v>
+        <v>1.015240323298186</v>
       </c>
       <c r="L9">
-        <v>1.061974236987057</v>
+        <v>1.004849705524377</v>
       </c>
       <c r="M9">
-        <v>1.070548118992964</v>
+        <v>1.005915216684387</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.05043025894321</v>
+        <v>0.9602663802809025</v>
       </c>
       <c r="D10">
-        <v>1.049512023025341</v>
+        <v>0.9877345559149673</v>
       </c>
       <c r="E10">
-        <v>1.056201623539915</v>
+        <v>0.9747137837854022</v>
       </c>
       <c r="F10">
-        <v>1.064509682149195</v>
+        <v>0.974273592419446</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039748847424511</v>
+        <v>1.031952651434816</v>
       </c>
       <c r="J10">
-        <v>1.056664251418192</v>
+        <v>0.9901502292449336</v>
       </c>
       <c r="K10">
-        <v>1.052910029353237</v>
+        <v>1.002328855265488</v>
       </c>
       <c r="L10">
-        <v>1.059576563544745</v>
+        <v>0.9895551069159607</v>
       </c>
       <c r="M10">
-        <v>1.067856418751999</v>
+        <v>0.9891234178325871</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049167382954214</v>
+        <v>0.9515728115373844</v>
       </c>
       <c r="D11">
-        <v>1.048540180199646</v>
+        <v>0.9810404383005191</v>
       </c>
       <c r="E11">
-        <v>1.055034583741953</v>
+        <v>0.9668751324806523</v>
       </c>
       <c r="F11">
-        <v>1.063216285067726</v>
+        <v>0.9657323766272756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039400561045359</v>
+        <v>1.028862033755046</v>
       </c>
       <c r="J11">
-        <v>1.055635532853797</v>
+        <v>0.9831088399070788</v>
       </c>
       <c r="K11">
-        <v>1.052061409389598</v>
+        <v>0.9963289858596128</v>
       </c>
       <c r="L11">
-        <v>1.058532528170124</v>
+        <v>0.9824499913367016</v>
       </c>
       <c r="M11">
-        <v>1.066685341407287</v>
+        <v>0.9813308164811859</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.048697447077058</v>
+        <v>0.9482421802145475</v>
       </c>
       <c r="D12">
-        <v>1.048178450458764</v>
+        <v>0.9784783659347117</v>
       </c>
       <c r="E12">
-        <v>1.054600271743847</v>
+        <v>0.9638738100970402</v>
       </c>
       <c r="F12">
-        <v>1.062735070133362</v>
+        <v>0.9624625491415606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039270552420888</v>
+        <v>1.027675309097343</v>
       </c>
       <c r="J12">
-        <v>1.055252551610407</v>
+        <v>0.9804108720922171</v>
       </c>
       <c r="K12">
-        <v>1.051745361641216</v>
+        <v>0.994029837365347</v>
       </c>
       <c r="L12">
-        <v>1.058143830152938</v>
+        <v>0.9797274777132833</v>
       </c>
       <c r="M12">
-        <v>1.066249493596746</v>
+        <v>0.978346061918653</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.048798288672281</v>
+        <v>0.9489614545538013</v>
       </c>
       <c r="D13">
-        <v>1.04825607667494</v>
+        <v>0.9790315404202586</v>
       </c>
       <c r="E13">
-        <v>1.05469347068371</v>
+        <v>0.9645218819423405</v>
       </c>
       <c r="F13">
-        <v>1.062838328507408</v>
+        <v>0.9631685781810001</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0392984687815</v>
+        <v>1.027931706764152</v>
       </c>
       <c r="J13">
-        <v>1.055334742060854</v>
+        <v>0.9809935275090852</v>
       </c>
       <c r="K13">
-        <v>1.05181319290179</v>
+        <v>0.994526372306446</v>
       </c>
       <c r="L13">
-        <v>1.058227248124881</v>
+        <v>0.9803154400320934</v>
       </c>
       <c r="M13">
-        <v>1.066343023613214</v>
+        <v>0.9789906054889403</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049128555341976</v>
+        <v>0.9512996595798873</v>
       </c>
       <c r="D14">
-        <v>1.048510294788874</v>
+        <v>0.980830262796627</v>
       </c>
       <c r="E14">
-        <v>1.054998700267168</v>
+        <v>0.9666289499011904</v>
       </c>
       <c r="F14">
-        <v>1.06317652394525</v>
+        <v>0.9654641605214128</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03938982758478</v>
+        <v>1.028764760307825</v>
       </c>
       <c r="J14">
-        <v>1.055603893359486</v>
+        <v>0.9828875786429584</v>
       </c>
       <c r="K14">
-        <v>1.052035301865343</v>
+        <v>0.9961404361009342</v>
       </c>
       <c r="L14">
-        <v>1.05850041668969</v>
+        <v>0.982226719722443</v>
       </c>
       <c r="M14">
-        <v>1.066649331720316</v>
+        <v>0.9810860148115785</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049331930484707</v>
+        <v>0.952726403612123</v>
       </c>
       <c r="D15">
-        <v>1.048666827827674</v>
+        <v>0.9819281704300582</v>
       </c>
       <c r="E15">
-        <v>1.055186652749112</v>
+        <v>0.9679148997292426</v>
       </c>
       <c r="F15">
-        <v>1.063384791927598</v>
+        <v>0.9668652233907349</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039446031772953</v>
+        <v>1.029272738712137</v>
       </c>
       <c r="J15">
-        <v>1.055769610538447</v>
+        <v>0.9840432730935134</v>
       </c>
       <c r="K15">
-        <v>1.05217203970484</v>
+        <v>0.9971252622186532</v>
       </c>
       <c r="L15">
-        <v>1.058668605380345</v>
+        <v>0.9833929093926429</v>
       </c>
       <c r="M15">
-        <v>1.066837943922045</v>
+        <v>0.9823647078896789</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050513954385573</v>
+        <v>0.960829927379652</v>
       </c>
       <c r="D16">
-        <v>1.049576417676735</v>
+        <v>0.9881688077779758</v>
       </c>
       <c r="E16">
-        <v>1.056278962188932</v>
+        <v>0.9752221362809582</v>
       </c>
       <c r="F16">
-        <v>1.064595411286393</v>
+        <v>0.974827580753883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039771872792072</v>
+        <v>1.0321526194467</v>
       </c>
       <c r="J16">
-        <v>1.056732403299951</v>
+        <v>0.9906066197548319</v>
       </c>
       <c r="K16">
-        <v>1.052966233647403</v>
+        <v>1.002717698239415</v>
       </c>
       <c r="L16">
-        <v>1.059645728150368</v>
+        <v>0.9900156109650695</v>
       </c>
       <c r="M16">
-        <v>1.067934020321291</v>
+        <v>0.9896286428464393</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05125392334935</v>
+        <v>0.9657477400301653</v>
       </c>
       <c r="D17">
-        <v>1.050145672743244</v>
+        <v>0.9919598663882214</v>
       </c>
       <c r="E17">
-        <v>1.056962699829271</v>
+        <v>0.9796594058890995</v>
       </c>
       <c r="F17">
-        <v>1.065353420486849</v>
+        <v>0.9796636201838123</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039975133091841</v>
+        <v>1.03389552274825</v>
       </c>
       <c r="J17">
-        <v>1.057334810748348</v>
+        <v>0.9945889367277753</v>
       </c>
       <c r="K17">
-        <v>1.053462945173146</v>
+        <v>1.006110352341238</v>
       </c>
       <c r="L17">
-        <v>1.060257076419969</v>
+        <v>0.9940337333744999</v>
       </c>
       <c r="M17">
-        <v>1.068620057004896</v>
+        <v>0.9940378697233323</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051685008116539</v>
+        <v>0.9685608147941707</v>
       </c>
       <c r="D18">
-        <v>1.050477244438251</v>
+        <v>0.994129622317125</v>
       </c>
       <c r="E18">
-        <v>1.057361001077912</v>
+        <v>0.9821984803322553</v>
       </c>
       <c r="F18">
-        <v>1.065795064960649</v>
+        <v>0.9824312456203868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040093286267253</v>
+        <v>1.034890691753046</v>
       </c>
       <c r="J18">
-        <v>1.05768564110799</v>
+        <v>0.9968665292638457</v>
       </c>
       <c r="K18">
-        <v>1.053752145917169</v>
+        <v>1.008050461381755</v>
       </c>
       <c r="L18">
-        <v>1.060613104763187</v>
+        <v>0.9963317328290849</v>
       </c>
       <c r="M18">
-        <v>1.069019676358535</v>
+        <v>0.9965602899725898</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051831908307284</v>
+        <v>0.9695109673072412</v>
       </c>
       <c r="D19">
-        <v>1.050590223455657</v>
+        <v>0.9948626761373291</v>
       </c>
       <c r="E19">
-        <v>1.057496725462484</v>
+        <v>0.9830562266319908</v>
       </c>
       <c r="F19">
-        <v>1.065945572038393</v>
+        <v>0.9833662655329526</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040133504968791</v>
+        <v>1.035226511110425</v>
       </c>
       <c r="J19">
-        <v>1.057805173588994</v>
+        <v>0.9976357477730629</v>
       </c>
       <c r="K19">
-        <v>1.053850667746662</v>
+        <v>1.008705656520019</v>
       </c>
       <c r="L19">
-        <v>1.060734406755159</v>
+        <v>0.9971078317133563</v>
       </c>
       <c r="M19">
-        <v>1.069155846312812</v>
+        <v>0.99741230890029</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051174586331476</v>
+        <v>0.9652259241134926</v>
       </c>
       <c r="D20">
-        <v>1.050084645303677</v>
+        <v>0.9915574784978157</v>
       </c>
       <c r="E20">
-        <v>1.056889394306839</v>
+        <v>0.9791884855553399</v>
       </c>
       <c r="F20">
-        <v>1.065272144080573</v>
+        <v>0.9791503411931779</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039953367145537</v>
+        <v>1.033710774240813</v>
       </c>
       <c r="J20">
-        <v>1.057270234517172</v>
+        <v>0.9941664199298398</v>
       </c>
       <c r="K20">
-        <v>1.05340970691237</v>
+        <v>1.005750421895212</v>
       </c>
       <c r="L20">
-        <v>1.060191542692243</v>
+        <v>0.9936074251832636</v>
       </c>
       <c r="M20">
-        <v>1.06854650718721</v>
+        <v>0.9935699892827928</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049031323636169</v>
+        <v>0.9506140414613127</v>
       </c>
       <c r="D21">
-        <v>1.048435454574414</v>
+        <v>0.980302759795153</v>
       </c>
       <c r="E21">
-        <v>1.054908840623337</v>
+        <v>0.9660110552583073</v>
       </c>
       <c r="F21">
-        <v>1.06307695581827</v>
+        <v>0.9647909714867354</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039362942413178</v>
+        <v>1.028520559741827</v>
       </c>
       <c r="J21">
-        <v>1.055524659175706</v>
+        <v>0.9823322034052204</v>
       </c>
       <c r="K21">
-        <v>1.051969919429258</v>
+        <v>0.9956671646402873</v>
       </c>
       <c r="L21">
-        <v>1.058420000284767</v>
+        <v>0.9816662963211872</v>
       </c>
       <c r="M21">
-        <v>1.066559155477641</v>
+        <v>0.9804715688014117</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047678853340303</v>
+        <v>0.9408307974189253</v>
       </c>
       <c r="D22">
-        <v>1.047394229069326</v>
+        <v>0.9727825881534625</v>
       </c>
       <c r="E22">
-        <v>1.053658823709599</v>
+        <v>0.9571989230884858</v>
       </c>
       <c r="F22">
-        <v>1.061692172479676</v>
+        <v>0.9551913162054008</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038988014677525</v>
+        <v>1.025029949363257</v>
       </c>
       <c r="J22">
-        <v>1.05442210640793</v>
+        <v>0.974407056057411</v>
       </c>
       <c r="K22">
-        <v>1.05105984273556</v>
+        <v>0.9889132215324714</v>
       </c>
       <c r="L22">
-        <v>1.057300961899153</v>
+        <v>0.9736687890054291</v>
       </c>
       <c r="M22">
-        <v>1.065304655376599</v>
+        <v>0.9717059570420749</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.048396297804224</v>
+        <v>0.9460789844617514</v>
       </c>
       <c r="D23">
-        <v>1.047946617337867</v>
+        <v>0.9768151292859876</v>
       </c>
       <c r="E23">
-        <v>1.054321940612509</v>
+        <v>0.9619250424647607</v>
       </c>
       <c r="F23">
-        <v>1.062426714979055</v>
+        <v>0.9603395677566589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039187124754817</v>
+        <v>1.026903831015814</v>
       </c>
       <c r="J23">
-        <v>1.055007075188573</v>
+        <v>0.97865853041727</v>
       </c>
       <c r="K23">
-        <v>1.051542754664304</v>
+        <v>0.9925364786246508</v>
       </c>
       <c r="L23">
-        <v>1.057894685366541</v>
+        <v>0.9779591557847598</v>
       </c>
       <c r="M23">
-        <v>1.065970168849646</v>
+        <v>0.9764077416869716</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051210436941368</v>
+        <v>0.9654618804810255</v>
       </c>
       <c r="D24">
-        <v>1.050112222413635</v>
+        <v>0.9917394278093183</v>
       </c>
       <c r="E24">
-        <v>1.056922519496479</v>
+        <v>0.9794014250822517</v>
       </c>
       <c r="F24">
-        <v>1.065308870901851</v>
+        <v>0.9793824331919855</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039963203491385</v>
+        <v>1.033794320035255</v>
       </c>
       <c r="J24">
-        <v>1.057299415415909</v>
+        <v>0.9943574760552153</v>
       </c>
       <c r="K24">
-        <v>1.053433764605471</v>
+        <v>1.005913178112553</v>
       </c>
       <c r="L24">
-        <v>1.060221156295085</v>
+        <v>0.9938001959439389</v>
       </c>
       <c r="M24">
-        <v>1.068579742834062</v>
+        <v>0.9937815561268447</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054455516298977</v>
+        <v>0.9858070146646686</v>
       </c>
       <c r="D25">
-        <v>1.052607100643385</v>
+        <v>1.007448857337462</v>
       </c>
       <c r="E25">
-        <v>1.059920365656841</v>
+        <v>0.997777854897666</v>
       </c>
       <c r="F25">
-        <v>1.06863433698814</v>
+        <v>0.9994200701099167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040847934668216</v>
+        <v>1.040958586364875</v>
       </c>
       <c r="J25">
-        <v>1.059938290402981</v>
+        <v>1.010821655530765</v>
       </c>
       <c r="K25">
-        <v>1.055607730173483</v>
+        <v>1.019932629513301</v>
       </c>
       <c r="L25">
-        <v>1.062898972191632</v>
+        <v>1.010410765029412</v>
       </c>
       <c r="M25">
-        <v>1.071587130839684</v>
+        <v>1.01202739541871</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
